--- a/studies/compareRecruitment.xlsx
+++ b/studies/compareRecruitment.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>TLEM2_0</t>
   </si>
@@ -333,6 +333,162 @@
   </si>
   <si>
     <t>4.9 (6.7)</t>
+  </si>
+  <si>
+    <t>TLEM2_0</t>
+  </si>
+  <si>
+    <t>Polynom1</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>14.1 (24.8)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>4.0 (3.7)</t>
+  </si>
+  <si>
+    <t>Polynom2</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>29.8 (21.1)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>4.6 (3.7)</t>
+  </si>
+  <si>
+    <t>Polynom3</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>50.2 (66.3)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>5.1 (3.5)</t>
+  </si>
+  <si>
+    <t>Polynom5</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>70.8 (93.7)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>5.4 (3.3)</t>
+  </si>
+  <si>
+    <t>MinMax</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>129.2 (115.5)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>4.8 (3.7)</t>
+  </si>
+  <si>
+    <t>TLEM2_0</t>
+  </si>
+  <si>
+    <t>Polynom1</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>9.7 (13.2)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>4.0 (3.9)</t>
+  </si>
+  <si>
+    <t>Polynom2</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>38.4 (37.6)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>4.9 (5.1)</t>
+  </si>
+  <si>
+    <t>Polynom3</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>52.7 (40.9)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>5.1 (5.6)</t>
+  </si>
+  <si>
+    <t>Polynom5</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>86.7 (58.1)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>5.3 (6.0)</t>
+  </si>
+  <si>
+    <t>MinMax</t>
+  </si>
+  <si>
+    <t>MAE Mag.</t>
+  </si>
+  <si>
+    <t>138.9 (73.6)</t>
+  </si>
+  <si>
+    <t>MAE Dir.</t>
+  </si>
+  <si>
+    <t>4.8 (6.7)</t>
   </si>
 </sst>
 </file>
@@ -367,7 +523,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -392,11 +548,13 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -409,6 +567,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,92 +873,92 @@
     <row r="2" s="2" customFormat="true">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="3" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="L2" s="3"/>
     </row>
     <row r="3">
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -833,92 +993,92 @@
     <row r="2" s="2" customFormat="true">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="3" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="L2" s="3"/>
     </row>
     <row r="3">
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="3" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
